--- a/biology/Zoologie/Argyrogena_fasciolata/Argyrogena_fasciolata.xlsx
+++ b/biology/Zoologie/Argyrogena_fasciolata/Argyrogena_fasciolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrogena fasciolata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogena fasciolata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde (dans les  États d'Andhra Pradesh, du Bengale-Occidental, de Bihar, de Chhattisgarh, de Goa, de Jharkhand, de Karnataka, de Maharashtra, d'Orissa et de l'Uttar Pradesh), au Népal (où selon Kramer[2], 1977, elle semble extrêmement rare), au Pakistan et au Sri Lanka[1].
-Sa présence est incertaine au Bhoutan[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde (dans les  États d'Andhra Pradesh, du Bengale-Occidental, de Bihar, de Chhattisgarh, de Goa, de Jharkhand, de Karnataka, de Maharashtra, d'Orissa et de l'Uttar Pradesh), au Népal (où selon Kramer, 1977, elle semble extrêmement rare), au Pakistan et au Sri Lanka.
+Sa présence est incertaine au Bhoutan.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shaw, 1802 : General Zoology, or Systematic Natural History, vol. 3, no 2, p. 313-615 (texte intégral).</t>
         </is>
